--- a/public/问卷模板.xlsx
+++ b/public/问卷模板.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>标题</t>
   </si>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>1~1星|2~2星|3~3星|4~4星|5~5星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -524,59 +528,67 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/public/问卷模板.xlsx
+++ b/public/问卷模板.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>标题</t>
   </si>
@@ -44,9 +44,6 @@
     <t>是</t>
   </si>
   <si>
-    <t>5~很满意|4~满意|3~一般|2~不满意|1~非常不满意</t>
-  </si>
-  <si>
     <t>问题2</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>问题5</t>
   </si>
   <si>
-    <t>问题6</t>
-  </si>
-  <si>
     <t>下拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +81,26 @@
   </si>
   <si>
     <t>分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~很不满意|100~很满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~很满意|4~满意|3~一般|2~不满意|1~很不满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~很满意|4~满意|3~一般|2~不满意|1~很不满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动条6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +119,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +179,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +489,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,30 +522,30 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -530,60 +555,62 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/问卷模板.xlsx
+++ b/public/问卷模板.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>标题</t>
   </si>
@@ -32,59 +32,76 @@
     <t>必答题</t>
   </si>
   <si>
+    <t>问题1</t>
+  </si>
+  <si>
+    <t>单选</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>问题2</t>
+  </si>
+  <si>
+    <t>多选</t>
+  </si>
+  <si>
+    <t>问题3</t>
+  </si>
+  <si>
+    <t>填空</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;说明文本&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>段落说明</t>
+  </si>
+  <si>
+    <t>问题4</t>
+  </si>
+  <si>
+    <t>问题5</t>
+  </si>
+  <si>
+    <t>下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~1星|2~2星|3~3星|4~4星|5~5星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~很不满意|100~很满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~很满意|4~满意|3~一般|2~不满意|1~很不满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动条6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>选项</t>
-  </si>
-  <si>
-    <t>问题1</t>
-  </si>
-  <si>
-    <t>单选</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>问题2</t>
-  </si>
-  <si>
-    <t>多选</t>
-  </si>
-  <si>
-    <t>问题3</t>
-  </si>
-  <si>
-    <t>填空</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;说明文本&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>段落说明</t>
-  </si>
-  <si>
-    <t>问题4</t>
-  </si>
-  <si>
-    <t>问题5</t>
-  </si>
-  <si>
-    <t>下拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~1星|2~2星|3~3星|4~4星|5~5星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~很不满意|100~很满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,15 +109,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5~很满意|4~满意|3~一般|2~不满意|1~很不满意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动条6</t>
+    <t>矩阵单选题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵多选题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵滑动条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵滑动条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观|功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,9 +209,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -486,19 +516,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="4" max="4" width="72.25" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="65.625" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,107 +541,169 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
